--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>730806.2404261895</v>
+        <v>786614.0717060062</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484451</v>
+        <v>492028.9342484442</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7540799.698979753</v>
+        <v>7547112.830748214</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>327.2879775827834</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>397.28217437688</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>137.8413084154415</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>5.64492333244486</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>243.5612656694182</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -956,10 +956,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>267.7357237463023</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>81.49380289235384</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>152.355512532834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>362.0169156563304</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>353.1779532171013</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1294,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>57.55526645593295</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>18.22772027659471</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1421,10 +1421,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>206.485501777224</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561524</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830428</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>144.493775385548</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1661,10 +1661,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>347.6097274870432</v>
+        <v>90.97964783089111</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1771,19 +1771,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>47.61404849749845</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>158.7868437042809</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948846</v>
+        <v>412.620323695548</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>33.08339867820199</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>64.34965323462538</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>161.8384861377985</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>71.84692347866323</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>205.9320983586116</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170491</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2956,13 +2956,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>164.9135579823461</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170422</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.55329631630673</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3560,7 +3560,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655108</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225694</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3806,7 +3806,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.203262463344</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225831</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663152</v>
+        <v>1749.679524752655</v>
       </c>
       <c r="C2" t="n">
-        <v>516.086709216029</v>
+        <v>1311.537051936079</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>875.6272671105232</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>474.3321414773111</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>450.5051159269229</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>85.75750262505991</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>693.4601489336208</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1301.162795242182</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1301.162795242182</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1301.162795242182</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1301.162795242182</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1908.865441550743</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2196.141924826354</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2196.141924826354</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2195.326874277791</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>2180.224814897506</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1771.938691197159</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397427</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064434</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940195</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>526.7806337295215</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>354.2189222127464</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>188.3409294142691</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>200.0427573423632</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>618.2526391103243</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1077.736506291237</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1519.995309448882</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1939.664558674663</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645005</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214709</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2274.705037512706</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>2028.825591091161</v>
       </c>
       <c r="U4" t="n">
-        <v>1537.942061378414</v>
+        <v>1750.392590344266</v>
       </c>
       <c r="V4" t="n">
-        <v>1537.942061378414</v>
+        <v>1463.437082214696</v>
       </c>
       <c r="W4" t="n">
-        <v>1537.942061378414</v>
+        <v>1191.410677800988</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.240118618369</v>
+        <v>946.0189231344004</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>718.5992524485087</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1197.718769568169</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>759.5762967515921</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>323.6665119260365</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>855.2769502042993</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>450.4214956153326</v>
+        <v>2047.406523133708</v>
       </c>
       <c r="X5" t="n">
-        <v>179.9813706190676</v>
+        <v>1628.264059713019</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>1624.018340053076</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2407.084663816257</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2128.651663069363</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1841.696154939793</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1569.669750526085</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1324.277995859497</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.3047513715257</v>
+        <v>2407.571603271173</v>
       </c>
       <c r="C8" t="n">
-        <v>122.202682595353</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>90.3333018102016</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890084</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851263</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851263</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851263</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851263</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>304.2846042752933</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>304.2846042752933</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>304.2846042752933</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743871</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873481</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172575</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1618.52954579867</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1359.307243115687</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1359.307243115687</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W8" t="n">
-        <v>954.4517885267201</v>
+        <v>2449.178548755904</v>
       </c>
       <c r="X8" t="n">
-        <v>535.3093251060308</v>
+        <v>2434.076489375619</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.5639178160294</v>
+        <v>2429.830769715676</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230017</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897023</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>387.3939335851826</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>387.3939335851826</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>387.3939335851826</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>387.3939335851826</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1115.830096070394</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>943.2683845536191</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>777.3903917551418</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E10" t="n">
-        <v>607.632388005879</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676351</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934628</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838373</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851263</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851263</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>174.10912527277</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>629.1618265718637</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729508</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.08987895529</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925631</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925631</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925631</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925631</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.596772925631</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1838.596772925631</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1780.460140141861</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1535.068385475273</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1307.648714789381</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847305</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939383</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047172022</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>403.2461837293682</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1237.596475687546</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M11" t="n">
-        <v>3028.309292652058</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N11" t="n">
-        <v>3028.309292652058</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O11" t="n">
-        <v>4008.488959222364</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P11" t="n">
-        <v>4836.798834055759</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5069,22 +5069,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5124,7 +5124,7 @@
         <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
         <v>1102.064021433509</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>667.5964292284816</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902378</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>325.2981002160655</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2677.839094654636</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2399.406093907741</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="14">
@@ -5264,40 +5264,40 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G14" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>931.0862686392932</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="M14" t="n">
-        <v>3028.309292652057</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="N14" t="n">
-        <v>3028.309292652057</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O14" t="n">
-        <v>4008.488959222363</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P14" t="n">
-        <v>4836.798834055759</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,10 +5306,10 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4533.079733112634</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
         <v>4181.958796257035</v>
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5370,7 +5370,7 @@
         <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>965.4711828007308</v>
+        <v>870.3006880091987</v>
       </c>
       <c r="C16" t="n">
-        <v>792.9094712839558</v>
+        <v>697.7389764924236</v>
       </c>
       <c r="D16" t="n">
-        <v>627.0314784854785</v>
+        <v>531.8609836939463</v>
       </c>
       <c r="E16" t="n">
-        <v>578.9364800031568</v>
+        <v>362.1029799446836</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5443,7 +5443,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S16" t="n">
-        <v>2713.395586583915</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2467.51614016237</v>
+        <v>2372.345645370838</v>
       </c>
       <c r="U16" t="n">
-        <v>2189.083139415475</v>
+        <v>2093.912644623943</v>
       </c>
       <c r="V16" t="n">
-        <v>1902.127631285906</v>
+        <v>1806.957136494374</v>
       </c>
       <c r="W16" t="n">
-        <v>1630.101226872197</v>
+        <v>1534.930732080665</v>
       </c>
       <c r="X16" t="n">
-        <v>1384.70947220561</v>
+        <v>1289.538977414078</v>
       </c>
       <c r="Y16" t="n">
-        <v>1157.289801519718</v>
+        <v>1062.119306728186</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689265</v>
+        <v>2511.879170851551</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>2073.736698034974</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1637.826913209419</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>1204.052168367714</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G17" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111516</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>498.7803825855946</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>1573.840348838454</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2730.888184049005</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>3856.619167485452</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>4836.798834055758</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4836.798834055758</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055758</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4803.381259633331</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4803.381259633331</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.158956950348</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.542006884174</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.686552295208</v>
+        <v>3765.607328457495</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.544088874518</v>
+        <v>3346.464865036805</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174172</v>
+        <v>2938.178741336459</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580464</v>
+        <v>1012.231663489991</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412714</v>
+        <v>839.6699519732163</v>
       </c>
       <c r="D19" t="n">
-        <v>608.7923094427941</v>
+        <v>673.7919591747388</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0343056935313</v>
+        <v>504.0339554254762</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552875</v>
+        <v>327.3269013872323</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111516</v>
+        <v>161.73562641306</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111516</v>
+        <v>161.73562641306</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5680,7 +5680,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S19" t="n">
-        <v>2695.15641754123</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119686</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.843970372791</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.888462243221</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.862057829513</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.470303162925</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477034</v>
+        <v>1204.050282208978</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526436</v>
       </c>
       <c r="E20" t="n">
         <v>1215.131392205427</v>
@@ -5744,10 +5744,10 @@
         <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q20" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4764.22618407731</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4544.158956950349</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174173</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D22" t="n">
         <v>608.792309442794</v>
@@ -5899,16 +5899,16 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5917,7 +5917,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5938,10 +5938,10 @@
         <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119685</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.84397037279</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V22" t="n">
         <v>1883.888462243221</v>
@@ -5953,7 +5953,7 @@
         <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573036</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562606</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577833</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6151,19 +6151,19 @@
         <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745656</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q25" t="n">
         <v>2718.920450173579</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2265.02878318778</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1978.073275058211</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1706.046870644502</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.655115977915</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2627364873769</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740236</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.756877347711</v>
+        <v>811.754677688392</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309359</v>
+        <v>639.1929661716169</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324586</v>
+        <v>473.3149733731397</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831958</v>
+        <v>303.5569696238769</v>
       </c>
       <c r="F28" t="n">
-        <v>267.8521152449521</v>
+        <v>126.8499155856331</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>949.5782250957668</v>
+        <v>811.7546776883913</v>
       </c>
       <c r="C31" t="n">
-        <v>777.0165135789917</v>
+        <v>639.1929661716163</v>
       </c>
       <c r="D31" t="n">
-        <v>611.1385207805145</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238762</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856324</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167233</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.816514500646</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1141.396843814754</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
         <v>614.3171730324584</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6980,7 +6980,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.756877347711</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258797</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.992967093271</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,40 +7172,40 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.4836598467</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
         <v>444.5591692831958</v>
@@ -7418,43 +7418,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7546,13 +7546,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
         <v>267.852115244952</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7655,43 +7655,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
         <v>267.852115244952</v>
@@ -7807,7 +7807,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7831,22 +7831,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2700.681281130894</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2454.801834709349</v>
       </c>
       <c r="U46" t="n">
         <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W46" t="n">
         <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1371.995166752589</v>
       </c>
       <c r="Y46" t="n">
         <v>1144.575496066698</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>37.0204222978517</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854828</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274509</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>270.2148169866472</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558155</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8696,7 +8696,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>592.8367376838255</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>592.8367376838246</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>309.606269745711</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8945,10 +8945,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>406.1054605095752</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807095</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>459.5978749662599</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9896,7 +9896,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10185,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10200,13 +10200,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>268.0111327346212</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>11.38105307846772</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.423368029025</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>11.38105307846854</v>
+        <v>268.0111327346206</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>84.63380825304841</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>10.96843159933634</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>49.73195639979937</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>23.42369649844603</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>267.5985112554893</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>10.96843159933814</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>69.71657238081414</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.146865729424036</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627264</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627264</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>139.592177662725</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>662912.6134611017</v>
+        <v>664856.4664914391</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>662912.6134611017</v>
+        <v>665406.9138726351</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>663275.1744174751</v>
+        <v>665406.9138726351</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632161.4770347833</v>
+        <v>632161.4770347832</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632161.4770347831</v>
+        <v>632161.4770347833</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632161.4770347831</v>
+        <v>632161.4770347833</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632161.4770347831</v>
+        <v>632161.4770347833</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>658839.4137479666</v>
+        <v>658839.4137479665</v>
       </c>
     </row>
     <row r="14">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>281477.3429424644</v>
+      </c>
+      <c r="C2" t="n">
         <v>281477.3429424645</v>
-      </c>
-      <c r="C2" t="n">
-        <v>281477.3429424644</v>
       </c>
       <c r="D2" t="n">
         <v>281477.3429424645</v>
       </c>
       <c r="E2" t="n">
-        <v>265400.0464351302</v>
+        <v>265400.0464351301</v>
       </c>
       <c r="F2" t="n">
         <v>265400.0464351301</v>
       </c>
       <c r="G2" t="n">
+        <v>265400.0464351302</v>
+      </c>
+      <c r="H2" t="n">
         <v>265400.0464351301</v>
-      </c>
-      <c r="H2" t="n">
-        <v>265400.04643513</v>
       </c>
       <c r="I2" t="n">
         <v>276600.2316721099</v>
@@ -26347,13 +26347,13 @@
         <v>276600.2316721099</v>
       </c>
       <c r="N2" t="n">
-        <v>276600.2316721099</v>
+        <v>276600.23167211</v>
       </c>
       <c r="O2" t="n">
         <v>276600.2316721099</v>
       </c>
       <c r="P2" t="n">
-        <v>276600.23167211</v>
+        <v>276600.2316721099</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039029</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390668</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520279</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283958</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784516</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509506</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104681</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>133864.3835971965</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.2398651109</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="D4" t="n">
-        <v>167571.762741488</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>13668.38414064833</v>
+        <v>13668.38414064837</v>
       </c>
       <c r="F4" t="n">
         <v>13668.38414064833</v>
       </c>
       <c r="G4" t="n">
-        <v>13668.38414064831</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="H4" t="n">
-        <v>13668.38414064832</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26451,10 +26451,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="N4" t="n">
+        <v>14245.20557049268</v>
+      </c>
+      <c r="O4" t="n">
         <v>14245.20557049264</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14245.2055704926</v>
       </c>
       <c r="P4" t="n">
         <v>14245.20557049264</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814192</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
+        <v>73519.34227764752</v>
+      </c>
+      <c r="F5" t="n">
         <v>73519.34227764753</v>
       </c>
-      <c r="F5" t="n">
-        <v>73519.34227764752</v>
-      </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
-      <c r="N5" t="n">
-        <v>77718.23860579252</v>
-      </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-95438.98571957875</v>
+        <v>-129048.4334167769</v>
       </c>
       <c r="C6" t="n">
-        <v>46752.31494013113</v>
+        <v>67793.42078166483</v>
       </c>
       <c r="D6" t="n">
-        <v>41349.50258050465</v>
+        <v>85133.96515557151</v>
       </c>
       <c r="E6" t="n">
-        <v>-45586.97373519355</v>
+        <v>16400.68625192301</v>
       </c>
       <c r="F6" t="n">
-        <v>178212.3200168342</v>
+        <v>178135.7614620374</v>
       </c>
       <c r="G6" t="n">
-        <v>178212.3200168343</v>
+        <v>178135.7614620375</v>
       </c>
       <c r="H6" t="n">
-        <v>178212.3200168342</v>
+        <v>178135.7614620374</v>
       </c>
       <c r="I6" t="n">
-        <v>166272.0718629851</v>
+        <v>166248.8475236027</v>
       </c>
       <c r="J6" t="n">
-        <v>73622.32215083457</v>
+        <v>24005.73367082882</v>
       </c>
       <c r="K6" t="n">
-        <v>184636.7874958247</v>
+        <v>170799.5545885969</v>
       </c>
       <c r="L6" t="n">
-        <v>175689.1764073153</v>
+        <v>184613.563156442</v>
       </c>
       <c r="M6" t="n">
-        <v>-2154.199114643328</v>
+        <v>49623.61854343868</v>
       </c>
       <c r="N6" t="n">
-        <v>184636.7874958247</v>
+        <v>184613.5631564422</v>
       </c>
       <c r="O6" t="n">
-        <v>184636.7874958248</v>
+        <v>184613.5631564421</v>
       </c>
       <c r="P6" t="n">
-        <v>184636.7874958248</v>
+        <v>184613.5631564421</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26802,10 +26802,10 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052269</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080592</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052269</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825318</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052269</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>106.4730705056276</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>32.15482301640776</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27433,7 +27433,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>30.2191152963286</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>237.2929137874768</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>185.8757317238696</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>147.2153150401801</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.78996144619879</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>71.74413243208051</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>51.02530924624176</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>54.79268646174563</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>211.7508739136384</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>37.0204222978517</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854828</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274509</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>270.2148169866472</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558155</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35416,7 +35416,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>592.8367376838255</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35428,10 +35428,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>592.8367376838246</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>309.606269745711</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35665,10 +35665,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>406.1054605095752</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807095</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36519,10 +36519,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080409</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36534,7 +36534,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>459.5978749662599</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36616,7 +36616,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36765,13 +36765,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,13 +36920,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38023,10 +38023,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
